--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CindyHu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CindyHu/Documents/Code/Education/PTADisc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C62C8CC-D65A-2841-917B-97C6BB0B5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF476D-512B-6045-ABED-F7B1EC68631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C2ABF418-5852-4A41-93FB-A18237484173}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{C2ABF418-5852-4A41-93FB-A18237484173}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>C++ programming</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Database technology and applitcation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduction to computer science</t>
   </si>
   <si>
@@ -312,6 +309,34 @@
   </si>
   <si>
     <t>course name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database technology and application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tourism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janpanese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Literature and history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1858941-24B2-414E-BA46-00C07C5134C3}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -699,22 +724,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -959,7 +984,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1">
         <v>12646</v>
@@ -979,7 +1004,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>26884</v>
@@ -999,7 +1024,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>18237</v>
@@ -1019,7 +1044,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>7552</v>
@@ -1039,7 +1064,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>11699</v>
@@ -1059,7 +1084,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>6612</v>
@@ -1079,7 +1104,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>5635</v>
@@ -1099,7 +1124,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>2597</v>
@@ -1119,7 +1144,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>1704</v>
@@ -1139,7 +1164,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>4398</v>
@@ -1159,7 +1184,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>14241</v>
@@ -1179,7 +1204,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>4197</v>
@@ -1199,7 +1224,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>2830</v>
@@ -1219,7 +1244,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2073</v>
@@ -1239,7 +1264,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>2134</v>
@@ -1259,7 +1284,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>4783</v>
@@ -1279,7 +1304,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>1211</v>
@@ -1299,7 +1324,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>2032</v>
@@ -1319,7 +1344,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>3516</v>
@@ -1339,7 +1364,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>1984</v>
@@ -1359,259 +1384,259 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
-        <v>850</v>
+        <v>1952</v>
       </c>
       <c r="C34" s="1">
-        <v>1753</v>
+        <v>660</v>
       </c>
       <c r="D34" s="1">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>133824</v>
+        <v>139328</v>
       </c>
       <c r="F34" s="1">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>1378</v>
+        <v>850</v>
       </c>
       <c r="C35" s="1">
-        <v>616</v>
+        <v>1753</v>
       </c>
       <c r="D35" s="1">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1">
-        <v>127382</v>
+        <v>133824</v>
       </c>
       <c r="F35" s="1">
-        <v>9367</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>1694</v>
+        <v>1378</v>
       </c>
       <c r="C36" s="1">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D36" s="1">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E36" s="1">
-        <v>125378</v>
+        <v>127382</v>
       </c>
       <c r="F36" s="1">
-        <v>58724</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1">
-        <v>1398</v>
+        <v>2306</v>
       </c>
       <c r="C37" s="1">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="D37" s="1">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1">
-        <v>123498</v>
+        <v>126748</v>
       </c>
       <c r="F37" s="1">
-        <v>248698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1">
-        <v>2699</v>
+        <v>1694</v>
       </c>
       <c r="C38" s="1">
-        <v>1403</v>
+        <v>608</v>
       </c>
       <c r="D38" s="1">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1">
-        <v>119565</v>
+        <v>125378</v>
       </c>
       <c r="F38" s="1">
-        <v>190772</v>
+        <v>58724</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
-        <v>689</v>
+        <v>1398</v>
       </c>
       <c r="C39" s="1">
-        <v>777</v>
+        <v>858</v>
       </c>
       <c r="D39" s="1">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1">
-        <v>117717</v>
+        <v>123498</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>248698</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1">
-        <v>210</v>
+        <v>2699</v>
       </c>
       <c r="C40" s="1">
-        <v>394</v>
+        <v>1403</v>
       </c>
       <c r="D40" s="1">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="E40" s="1">
-        <v>99217</v>
+        <v>119565</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>190772</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
-        <v>1844</v>
+        <v>689</v>
       </c>
       <c r="C41" s="1">
-        <v>1298</v>
+        <v>777</v>
       </c>
       <c r="D41" s="1">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1">
-        <v>93303</v>
+        <v>117717</v>
       </c>
       <c r="F41" s="1">
-        <v>10055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1">
-        <v>496</v>
+        <v>210</v>
       </c>
       <c r="C42" s="1">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="D42" s="1">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E42" s="1">
-        <v>82141</v>
+        <v>99217</v>
       </c>
       <c r="F42" s="1">
-        <v>16658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1">
-        <v>784</v>
+        <v>1844</v>
       </c>
       <c r="C43" s="1">
-        <v>505</v>
+        <v>1298</v>
       </c>
       <c r="D43" s="1">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="E43" s="1">
-        <v>80977</v>
+        <v>93303</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1">
-        <v>1236</v>
+        <v>496</v>
       </c>
       <c r="C44" s="1">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D44" s="1">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
-        <v>77571</v>
+        <v>82141</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>16658</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1">
-        <v>1805</v>
+        <v>784</v>
       </c>
       <c r="C45" s="1">
-        <v>348</v>
+        <v>505</v>
       </c>
       <c r="D45" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E45" s="1">
-        <v>76986</v>
+        <v>80977</v>
       </c>
       <c r="F45" s="1">
-        <v>382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1">
-        <v>1801</v>
+        <v>1236</v>
       </c>
       <c r="C46" s="1">
-        <v>546</v>
+        <v>362</v>
       </c>
       <c r="D46" s="1">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E46" s="1">
-        <v>63889</v>
+        <v>77571</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1619,39 +1644,39 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1">
-        <v>610</v>
+        <v>1805</v>
       </c>
       <c r="C47" s="1">
-        <v>1111</v>
+        <v>348</v>
       </c>
       <c r="D47" s="1">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1">
-        <v>54558</v>
+        <v>76986</v>
       </c>
       <c r="F47" s="1">
-        <v>17348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1">
-        <v>217</v>
+        <v>1801</v>
       </c>
       <c r="C48" s="1">
-        <v>640</v>
+        <v>546</v>
       </c>
       <c r="D48" s="1">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1">
-        <v>51724</v>
+        <v>63889</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1659,59 +1684,59 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="C49" s="1">
-        <v>1054</v>
+        <v>1111</v>
       </c>
       <c r="D49" s="1">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E49" s="1">
-        <v>46106</v>
+        <v>54558</v>
       </c>
       <c r="F49" s="1">
-        <v>1413</v>
+        <v>17348</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1">
-        <v>1037</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1">
-        <v>373</v>
+        <v>640</v>
       </c>
       <c r="D50" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" s="1">
-        <v>38440</v>
+        <v>51724</v>
       </c>
       <c r="F50" s="1">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1">
-        <v>582</v>
+        <v>296</v>
       </c>
       <c r="C51" s="1">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>28088</v>
+        <v>50180</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1719,99 +1744,99 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>740</v>
+        <v>557</v>
       </c>
       <c r="C52" s="1">
-        <v>301</v>
+        <v>1054</v>
       </c>
       <c r="D52" s="1">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="E52" s="1">
-        <v>24879</v>
+        <v>46106</v>
       </c>
       <c r="F52" s="1">
-        <v>11</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>454</v>
+        <v>1037</v>
       </c>
       <c r="C53" s="1">
-        <v>172</v>
+        <v>373</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E53" s="1">
-        <v>24342</v>
+        <v>38440</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="C54" s="1">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="D54" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1">
-        <v>17341</v>
+        <v>28088</v>
       </c>
       <c r="F54" s="1">
-        <v>8811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
-        <v>165</v>
+        <v>740</v>
       </c>
       <c r="C55" s="1">
-        <v>632</v>
+        <v>301</v>
       </c>
       <c r="D55" s="1">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="E55" s="1">
-        <v>14462</v>
+        <v>24879</v>
       </c>
       <c r="F55" s="1">
-        <v>340</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="C56" s="1">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D56" s="1">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>11872</v>
+        <v>24342</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1819,59 +1844,59 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>217</v>
+        <v>494</v>
       </c>
       <c r="C57" s="1">
-        <v>291</v>
+        <v>420</v>
       </c>
       <c r="D57" s="1">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E57" s="1">
-        <v>10949</v>
+        <v>17341</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1">
-        <v>422</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1">
-        <v>41</v>
+        <v>632</v>
       </c>
       <c r="D58" s="1">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1">
-        <v>10213</v>
+        <v>14462</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="C59" s="1">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="D59" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1">
-        <v>8502</v>
+        <v>11872</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1879,59 +1904,59 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="D60" s="1">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1">
-        <v>7024</v>
+        <v>10949</v>
       </c>
       <c r="F60" s="1">
-        <v>9085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="C61" s="1">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1">
-        <v>6030</v>
+        <v>10213</v>
       </c>
       <c r="F61" s="1">
-        <v>6089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="C62" s="1">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D62" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E62" s="1">
-        <v>3643</v>
+        <v>8502</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -1939,156 +1964,280 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="C63" s="1">
-        <v>59</v>
+        <v>357</v>
       </c>
       <c r="D63" s="1">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E63" s="1">
-        <v>3571</v>
+        <v>7024</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1">
+        <v>249</v>
+      </c>
+      <c r="C64" s="1">
+        <v>76</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6030</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="1">
+        <v>54</v>
+      </c>
+      <c r="C65" s="1">
+        <v>190</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5735</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1">
+        <v>91</v>
+      </c>
+      <c r="D66" s="1">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3643</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1">
+        <v>39</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3571</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="1">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2242</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
-        <v>60</v>
-      </c>
-      <c r="C64" s="1">
-        <v>54</v>
-      </c>
-      <c r="D64" s="1">
-        <v>26</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2242</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="B69" s="1">
+        <v>31</v>
+      </c>
+      <c r="C69" s="1">
+        <v>102</v>
+      </c>
+      <c r="D69" s="1">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2170</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
-        <v>31</v>
-      </c>
-      <c r="C65" s="1">
-        <v>102</v>
-      </c>
-      <c r="D65" s="1">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1">
-        <v>2170</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="B70" s="1">
+        <v>87</v>
+      </c>
+      <c r="C70" s="1">
+        <v>53</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2105</v>
+      </c>
+      <c r="F70" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
-        <v>87</v>
-      </c>
-      <c r="C66" s="1">
-        <v>53</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1">
-        <v>2105</v>
-      </c>
-      <c r="F66" s="1">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
+      <c r="B71" s="1">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1">
+        <v>29</v>
+      </c>
+      <c r="D71" s="1">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1476</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1">
+        <v>56</v>
+      </c>
+      <c r="C72" s="1">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1450</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1320</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1">
-        <v>29</v>
-      </c>
-      <c r="D67" s="1">
-        <v>19</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1476</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="B74" s="1">
+        <v>331</v>
+      </c>
+      <c r="C74" s="1">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1">
+        <v>5492</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
-        <v>331</v>
-      </c>
-      <c r="C68" s="1">
-        <v>21</v>
-      </c>
-      <c r="D68" s="1">
-        <v>20</v>
-      </c>
-      <c r="E68" s="1">
-        <v>21</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="B75" s="1">
         <v>98</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C75" s="1">
         <v>3</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D75" s="1">
         <v>3</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <f>COUNTIFS(F2:F69,"&gt;100000")</f>
-        <v>8</v>
-      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="G78" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F75">
+    <sortCondition descending="1" ref="E1:E75"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CindyHu/Documents/Code/Education/PTADisc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF476D-512B-6045-ABED-F7B1EC68631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D85B01-9C3E-274C-A7AE-C40A01BB7C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{C2ABF418-5852-4A41-93FB-A18237484173}"/>
   </bookViews>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1858941-24B2-414E-BA46-00C07C5134C3}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1393,7 +1393,7 @@
         <v>660</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1">
         <v>139328</v>
@@ -2013,7 +2013,7 @@
         <v>190</v>
       </c>
       <c r="D65" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1">
         <v>5735</v>
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="D72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1">
         <v>1450</v>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CindyHu/Documents/Code/Education/PTADisc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D85B01-9C3E-274C-A7AE-C40A01BB7C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A06514-AD17-9D4C-B748-8BA2EC00045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{C2ABF418-5852-4A41-93FB-A18237484173}"/>
   </bookViews>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Janpanese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Politics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +333,10 @@
   </si>
   <si>
     <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1858941-24B2-414E-BA46-00C07C5134C3}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>1952</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1">
         <v>2306</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
         <v>54</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
         <v>56</v>
